--- a/testData/HRMS.xlsx
+++ b/testData/HRMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="4"/>
+    <workbookView windowWidth="17790" windowHeight="6720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="请假" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="签卡" sheetId="1" r:id="rId3"/>
     <sheet name="出差" sheetId="4" r:id="rId4"/>
     <sheet name="出差（飞机）" sheetId="5" r:id="rId5"/>
+    <sheet name="离职" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="88">
   <si>
     <t>申请人姓名</t>
   </si>
@@ -264,6 +265,24 @@
   </si>
   <si>
     <t>北京</t>
+  </si>
+  <si>
+    <t>国傻</t>
+  </si>
+  <si>
+    <t>老大</t>
+  </si>
+  <si>
+    <t>X26392</t>
+  </si>
+  <si>
+    <t>小柔</t>
+  </si>
+  <si>
+    <t>X56712</t>
+  </si>
+  <si>
+    <t>2019-04-08</t>
   </si>
 </sst>
 </file>
@@ -272,17 +291,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF363636"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -319,8 +344,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -328,7 +360,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,6 +368,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,9 +397,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,15 +422,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,7 +437,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -390,45 +445,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,8 +458,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,13 +476,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF5F7FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,13 +536,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,161 +662,35 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEBEEF5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -669,6 +718,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -676,6 +740,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,45 +774,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -750,10 +790,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,150 +802,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1229,7 +1275,7 @@
   <sheetPr/>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
@@ -1238,7 +1284,7 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="9.75" customWidth="1"/>
@@ -1292,13 +1338,13 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1328,10 +1374,10 @@
       <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1363,13 +1409,13 @@
       <c r="O3" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="3"/>
+      <c r="R3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1382,7 +1428,7 @@
   <sheetPr/>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:R2"/>
     </sheetView>
   </sheetViews>
@@ -1395,7 +1441,7 @@
     <col min="9" max="9" width="11.125" customWidth="1"/>
     <col min="11" max="11" width="13.25" customWidth="1"/>
     <col min="12" max="12" width="8.875" customWidth="1"/>
-    <col min="15" max="15" width="12.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="1" customWidth="1"/>
     <col min="16" max="16" width="22.875" customWidth="1"/>
     <col min="17" max="17" width="22.25" customWidth="1"/>
   </cols>
@@ -1446,13 +1492,13 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1484,10 +1530,10 @@
       <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1568,13 +1614,13 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1600,7 +1646,7 @@
       <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" t="s">
@@ -1867,26 +1913,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="2:16">
-      <c r="B14" s="1" t="s">
+    <row r="14" s="5" customFormat="1" spans="2:16">
+      <c r="B14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="1" t="s">
+      <c r="O14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1936,125 +1982,125 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="2:16">
-      <c r="B17" s="4" t="s">
+    <row r="17" s="6" customFormat="1" spans="2:16">
+      <c r="B17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="2:16">
-      <c r="B18" s="4" t="s">
+      <c r="O17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" s="6" customFormat="1" spans="2:16">
+      <c r="B18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="2:16">
-      <c r="B19" s="1" t="s">
+      <c r="O18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="1" spans="2:16">
+      <c r="B19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="2:16">
-      <c r="B20" s="1" t="s">
+      <c r="O19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" s="5" customFormat="1" spans="2:16">
+      <c r="B20" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20" s="1" t="s">
+      <c r="O20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2081,211 +2127,211 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="2:16">
-      <c r="B22" s="1" t="s">
+    <row r="22" s="5" customFormat="1" spans="2:16">
+      <c r="B22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" s="4" customFormat="1" spans="2:16">
-      <c r="B23" s="4" t="s">
+      <c r="O22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="2:16">
+      <c r="B23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="O23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" s="4" customFormat="1" spans="2:16">
-      <c r="B24" s="4" t="s">
+      <c r="O23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="2:16">
+      <c r="B24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" s="4" customFormat="1" spans="2:16">
-      <c r="B25" s="4" t="s">
+      <c r="O24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" s="6" customFormat="1" spans="2:16">
+      <c r="B25" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="1" spans="2:16">
-      <c r="B26" s="4" t="s">
+      <c r="O25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="2:16">
+      <c r="B26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" spans="2:16">
-      <c r="B27" s="4" t="s">
+      <c r="O26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="2:16">
+      <c r="B27" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" s="4" customFormat="1" spans="2:16">
-      <c r="B28" s="4" t="s">
+      <c r="O27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" s="6" customFormat="1" spans="2:16">
+      <c r="B28" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" s="4" customFormat="1" spans="2:16">
-      <c r="B29" s="4" t="s">
+      <c r="O28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="2:16">
+      <c r="B29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="4" t="s">
+      <c r="O29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2319,7 +2365,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="F1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2336,8 +2382,8 @@
     <col min="12" max="12" width="9.625" customWidth="1"/>
     <col min="13" max="13" width="9.5" customWidth="1"/>
     <col min="14" max="14" width="10.625" customWidth="1"/>
-    <col min="16" max="16" width="24.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="21.375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="24.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2387,13 +2433,13 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2425,13 +2471,13 @@
       <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2446,7 +2492,7 @@
   <sheetPr/>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
@@ -2503,13 +2549,13 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2538,20 +2584,16 @@
       <c r="H2" t="s">
         <v>34</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
       <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2581,19 +2623,117 @@
       <c r="O3" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
+    <row r="5" s="5" customFormat="1"/>
+    <row r="6" s="5" customFormat="1"/>
+    <row r="7" s="5" customFormat="1"/>
+    <row r="8" s="5" customFormat="1"/>
+    <row r="9" s="5" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="15" max="15" width="12.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/testData/HRMS.xlsx
+++ b/testData/HRMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17790" windowHeight="6720" activeTab="5"/>
+    <workbookView windowWidth="17790" windowHeight="6720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="请假" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="出差" sheetId="4" r:id="rId4"/>
     <sheet name="出差（飞机）" sheetId="5" r:id="rId5"/>
     <sheet name="离职" sheetId="6" r:id="rId6"/>
+    <sheet name="离职结算" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="95">
   <si>
     <t>申请人姓名</t>
   </si>
@@ -267,7 +268,13 @@
     <t>北京</t>
   </si>
   <si>
-    <t>国傻</t>
+    <t>离职日期</t>
+  </si>
+  <si>
+    <t>冯可</t>
+  </si>
+  <si>
+    <t>X57120</t>
   </si>
   <si>
     <t>老大</t>
@@ -282,7 +289,22 @@
     <t>X56712</t>
   </si>
   <si>
-    <t>2019-04-08</t>
+    <t>2019-04-20</t>
+  </si>
+  <si>
+    <t>工作交接情况</t>
+  </si>
+  <si>
+    <t>实际离职日期</t>
+  </si>
+  <si>
+    <t>王大锤</t>
+  </si>
+  <si>
+    <t>X56693</t>
+  </si>
+  <si>
+    <t>自动化交接</t>
   </si>
 </sst>
 </file>
@@ -290,9 +312,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -330,8 +352,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,8 +397,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,14 +444,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,74 +482,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -488,13 +510,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,103 +666,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,55 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,11 +707,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,17 +761,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,21 +786,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,15 +804,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -790,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -802,151 +824,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1284,7 +1303,7 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="9.75" customWidth="1"/>
@@ -1302,49 +1321,49 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1358,26 +1377,26 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="1"/>
       <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1409,13 +1428,13 @@
       <c r="O3" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="1"/>
+      <c r="R3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1441,7 +1460,7 @@
     <col min="9" max="9" width="11.125" customWidth="1"/>
     <col min="11" max="11" width="13.25" customWidth="1"/>
     <col min="12" max="12" width="8.875" customWidth="1"/>
-    <col min="15" max="15" width="12.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="3" customWidth="1"/>
     <col min="16" max="16" width="22.875" customWidth="1"/>
     <col min="17" max="17" width="22.25" customWidth="1"/>
   </cols>
@@ -1456,49 +1475,49 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1530,10 +1549,10 @@
       <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1548,15 +1567,15 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.625" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
@@ -1578,49 +1597,49 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1646,7 +1665,7 @@
       <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" t="s">
@@ -1913,26 +1932,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" spans="2:16">
-      <c r="B14" s="5" t="s">
+    <row r="14" s="4" customFormat="1" spans="2:16">
+      <c r="B14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="5" t="s">
+      <c r="O14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1982,125 +2001,125 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" spans="2:16">
-      <c r="B17" s="6" t="s">
+    <row r="17" s="5" customFormat="1" spans="2:16">
+      <c r="B17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" s="6" customFormat="1" spans="2:16">
-      <c r="B18" s="6" t="s">
+      <c r="O17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="2:16">
+      <c r="B18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="1" spans="2:16">
-      <c r="B19" s="5" t="s">
+      <c r="O18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" s="4" customFormat="1" spans="2:16">
+      <c r="B19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" spans="2:16">
-      <c r="B20" s="5" t="s">
+      <c r="O19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" spans="2:16">
+      <c r="B20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20" s="5" t="s">
+      <c r="O20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2127,211 +2146,211 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" spans="2:16">
-      <c r="B22" s="5" t="s">
+    <row r="22" s="4" customFormat="1" spans="2:16">
+      <c r="B22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="O22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" s="6" customFormat="1" spans="2:16">
-      <c r="B23" s="6" t="s">
+      <c r="O22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="1" spans="2:16">
+      <c r="B23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="O23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" s="6" customFormat="1" spans="2:16">
-      <c r="B24" s="6" t="s">
+      <c r="O23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" s="5" customFormat="1" spans="2:16">
+      <c r="B24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" s="6" customFormat="1" spans="2:16">
-      <c r="B25" s="6" t="s">
+      <c r="O24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" s="5" customFormat="1" spans="2:16">
+      <c r="B25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" s="6" customFormat="1" spans="2:16">
-      <c r="B26" s="6" t="s">
+      <c r="O25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" s="5" customFormat="1" spans="2:16">
+      <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" s="6" customFormat="1" spans="2:16">
-      <c r="B27" s="6" t="s">
+      <c r="O26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" s="5" customFormat="1" spans="2:16">
+      <c r="B27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" s="6" customFormat="1" spans="2:16">
-      <c r="B28" s="6" t="s">
+      <c r="O27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" s="5" customFormat="1" spans="2:16">
+      <c r="B28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" s="6" customFormat="1" spans="2:16">
-      <c r="B29" s="6" t="s">
+      <c r="O28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" s="5" customFormat="1" spans="2:16">
+      <c r="B29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="6" t="s">
+      <c r="O29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2382,8 +2401,8 @@
     <col min="12" max="12" width="9.625" customWidth="1"/>
     <col min="13" max="13" width="9.5" customWidth="1"/>
     <col min="14" max="14" width="10.625" customWidth="1"/>
-    <col min="16" max="16" width="24.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="21.375" style="3" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2397,49 +2416,49 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2471,13 +2490,13 @@
       <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2513,49 +2532,49 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2587,13 +2606,13 @@
       <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2607,35 +2626,35 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="N3" s="1"/>
       <c r="O3" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="1"/>
-    <row r="5" s="5" customFormat="1"/>
-    <row r="6" s="5" customFormat="1"/>
-    <row r="7" s="5" customFormat="1"/>
-    <row r="8" s="5" customFormat="1"/>
-    <row r="9" s="5" customFormat="1"/>
+    <row r="5" s="4" customFormat="1"/>
+    <row r="6" s="4" customFormat="1"/>
+    <row r="7" s="4" customFormat="1"/>
+    <row r="8" s="4" customFormat="1"/>
+    <row r="9" s="4" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2647,13 +2666,13 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="15" max="15" width="12.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -2666,51 +2685,51 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="O1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" ht="14.25" spans="1:15">
-      <c r="A2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>32</v>
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -2719,19 +2738,123 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="15" max="15" width="15.25" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:16">
+      <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="O2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/testData/HRMS.xlsx
+++ b/testData/HRMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17790" windowHeight="6720" activeTab="6"/>
+    <workbookView windowWidth="17790" windowHeight="6720" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="请假" sheetId="2" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="出差（飞机）" sheetId="5" r:id="rId5"/>
     <sheet name="离职" sheetId="6" r:id="rId6"/>
     <sheet name="离职结算" sheetId="7" r:id="rId7"/>
+    <sheet name="转正" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="114">
   <si>
     <t>申请人姓名</t>
   </si>
@@ -73,9 +74,237 @@
     <t>申请结束日期</t>
   </si>
   <si>
+    <t>空（勿删）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">戴菁慧 </t>
+  </si>
+  <si>
+    <t>X25164</t>
+  </si>
+  <si>
+    <t>黎海燕</t>
+  </si>
+  <si>
+    <t>X23773</t>
+  </si>
+  <si>
+    <t>黄建波</t>
+  </si>
+  <si>
+    <t>X24103</t>
+  </si>
+  <si>
+    <t>自动测试</t>
+  </si>
+  <si>
+    <t>2019-04-01 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-04-05 18:00:00</t>
+  </si>
+  <si>
+    <t>郑晓</t>
+  </si>
+  <si>
+    <t>X5035</t>
+  </si>
+  <si>
+    <t>高柳芬</t>
+  </si>
+  <si>
+    <t>X25237</t>
+  </si>
+  <si>
+    <t>陈凤娇</t>
+  </si>
+  <si>
+    <t>X2793</t>
+  </si>
+  <si>
+    <t>四非</t>
+  </si>
+  <si>
+    <t>X57224</t>
+  </si>
+  <si>
+    <t>菲儿</t>
+  </si>
+  <si>
+    <t>x56888</t>
+  </si>
+  <si>
+    <t>四负</t>
+  </si>
+  <si>
+    <t>X57226</t>
+  </si>
+  <si>
+    <t>格思</t>
+  </si>
+  <si>
+    <t>x26391</t>
+  </si>
+  <si>
+    <t>2019-03-12 09:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 18:00:00</t>
+  </si>
+  <si>
+    <t>申请日期</t>
+  </si>
+  <si>
+    <t>x26409</t>
+  </si>
+  <si>
+    <t>柳裕</t>
+  </si>
+  <si>
+    <t>x56834</t>
+  </si>
+  <si>
+    <t>高艳梅</t>
+  </si>
+  <si>
+    <t>x3797</t>
+  </si>
+  <si>
+    <t>x26410</t>
+  </si>
+  <si>
+    <t>x26411</t>
+  </si>
+  <si>
+    <t>x26412</t>
+  </si>
+  <si>
+    <t>x26413</t>
+  </si>
+  <si>
+    <t>邓肯</t>
+  </si>
+  <si>
+    <t>X26415</t>
+  </si>
+  <si>
+    <t>X26414</t>
+  </si>
+  <si>
+    <t>X26408</t>
+  </si>
+  <si>
+    <t>X26438</t>
+  </si>
+  <si>
+    <t>李思思</t>
+  </si>
+  <si>
+    <t>X56777</t>
+  </si>
+  <si>
+    <t>岭南</t>
+  </si>
+  <si>
+    <t>X56799</t>
+  </si>
+  <si>
+    <t>任宏团</t>
+  </si>
+  <si>
+    <t>X6010</t>
+  </si>
+  <si>
+    <t>x57227</t>
+  </si>
+  <si>
+    <t>X57228</t>
+  </si>
+  <si>
+    <t>东东</t>
+  </si>
+  <si>
+    <t>X56707</t>
+  </si>
+  <si>
+    <t>刘鑫鑫</t>
+  </si>
+  <si>
+    <t>X26401</t>
+  </si>
+  <si>
+    <t>X57233</t>
+  </si>
+  <si>
+    <t>李明</t>
+  </si>
+  <si>
+    <t>X57231</t>
+  </si>
+  <si>
+    <t>X26404</t>
+  </si>
+  <si>
+    <t>X57229</t>
+  </si>
+  <si>
+    <t>陈欣欣</t>
+  </si>
+  <si>
+    <t>X26405</t>
+  </si>
+  <si>
+    <t>x3280</t>
+  </si>
+  <si>
+    <t>马分人</t>
+  </si>
+  <si>
+    <t>X57245</t>
+  </si>
+  <si>
+    <t>小丁</t>
+  </si>
+  <si>
+    <t>X26093</t>
+  </si>
+  <si>
+    <t>马执总</t>
+  </si>
+  <si>
+    <t>X57240</t>
+  </si>
+  <si>
+    <t>林4</t>
+  </si>
+  <si>
+    <t>X56920</t>
+  </si>
+  <si>
+    <t>x57235</t>
+  </si>
+  <si>
+    <t>X56835</t>
+  </si>
+  <si>
+    <t>X57222</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>X57221</t>
+  </si>
+  <si>
+    <t>X57179</t>
+  </si>
+  <si>
     <t>出差地点</t>
   </si>
   <si>
+    <t>北京</t>
+  </si>
+  <si>
     <t>李想</t>
   </si>
   <si>
@@ -88,195 +317,9 @@
     <t>X26407</t>
   </si>
   <si>
-    <t>邓肯</t>
-  </si>
-  <si>
-    <t>X26415</t>
-  </si>
-  <si>
-    <t>自动测试</t>
-  </si>
-  <si>
-    <t>2019-03-12 09:00:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 18:00:00</t>
-  </si>
-  <si>
-    <t>四非</t>
-  </si>
-  <si>
-    <t>X57224</t>
-  </si>
-  <si>
-    <t>菲儿</t>
-  </si>
-  <si>
-    <t>x56888</t>
-  </si>
-  <si>
-    <t>四负</t>
-  </si>
-  <si>
-    <t>X57226</t>
-  </si>
-  <si>
-    <t>格思</t>
-  </si>
-  <si>
-    <t>x26391</t>
-  </si>
-  <si>
-    <t>x26409</t>
-  </si>
-  <si>
-    <t>柳裕</t>
-  </si>
-  <si>
-    <t>x56834</t>
-  </si>
-  <si>
-    <t>高艳梅</t>
-  </si>
-  <si>
-    <t>x3797</t>
-  </si>
-  <si>
-    <t>x26410</t>
-  </si>
-  <si>
-    <t>x26411</t>
-  </si>
-  <si>
-    <t>x26412</t>
-  </si>
-  <si>
-    <t>x26413</t>
-  </si>
-  <si>
-    <t>X26414</t>
-  </si>
-  <si>
-    <t>X26408</t>
-  </si>
-  <si>
-    <t>X26438</t>
-  </si>
-  <si>
-    <t>李思思</t>
-  </si>
-  <si>
-    <t>X56777</t>
-  </si>
-  <si>
-    <t>岭南</t>
-  </si>
-  <si>
-    <t>X56799</t>
-  </si>
-  <si>
-    <t>任宏团</t>
-  </si>
-  <si>
-    <t>X6010</t>
-  </si>
-  <si>
-    <t>x57227</t>
-  </si>
-  <si>
-    <t>X57228</t>
-  </si>
-  <si>
-    <t>东东</t>
-  </si>
-  <si>
-    <t>X56707</t>
-  </si>
-  <si>
-    <t>刘鑫鑫</t>
-  </si>
-  <si>
-    <t>X26401</t>
-  </si>
-  <si>
-    <t>X57233</t>
-  </si>
-  <si>
-    <t>李明</t>
-  </si>
-  <si>
-    <t>X57231</t>
-  </si>
-  <si>
-    <t>X26404</t>
-  </si>
-  <si>
-    <t>X57229</t>
-  </si>
-  <si>
-    <t>陈欣欣</t>
-  </si>
-  <si>
-    <t>X26405</t>
-  </si>
-  <si>
-    <t>x3280</t>
-  </si>
-  <si>
-    <t>马分人</t>
-  </si>
-  <si>
-    <t>X57245</t>
-  </si>
-  <si>
-    <t>小丁</t>
-  </si>
-  <si>
-    <t>X26093</t>
-  </si>
-  <si>
-    <t>马执总</t>
-  </si>
-  <si>
-    <t>X57240</t>
-  </si>
-  <si>
-    <t>林4</t>
-  </si>
-  <si>
-    <t>X56920</t>
-  </si>
-  <si>
-    <t>x57235</t>
-  </si>
-  <si>
-    <t>X56835</t>
-  </si>
-  <si>
-    <t>X57222</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>X57221</t>
-  </si>
-  <si>
-    <t>X57179</t>
-  </si>
-  <si>
-    <t>北京</t>
-  </si>
-  <si>
     <t>离职日期</t>
   </si>
   <si>
-    <t>冯可</t>
-  </si>
-  <si>
-    <t>X57120</t>
-  </si>
-  <si>
     <t>老大</t>
   </si>
   <si>
@@ -295,9 +338,6 @@
     <t>工作交接情况</t>
   </si>
   <si>
-    <t>实际离职日期</t>
-  </si>
-  <si>
     <t>王大锤</t>
   </si>
   <si>
@@ -305,6 +345,24 @@
   </si>
   <si>
     <t>自动化交接</t>
+  </si>
+  <si>
+    <t>工作说明</t>
+  </si>
+  <si>
+    <t>自身不足</t>
+  </si>
+  <si>
+    <t>目标设定</t>
+  </si>
+  <si>
+    <t>自动填写工作说明</t>
+  </si>
+  <si>
+    <t>自动填写自身不足</t>
+  </si>
+  <si>
+    <t>自动填写目标设定</t>
   </si>
 </sst>
 </file>
@@ -312,10 +370,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -352,15 +410,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -377,21 +477,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,35 +507,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -475,21 +541,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,187 +562,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,17 +771,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,9 +797,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,22 +839,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,10 +876,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,137 +888,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,6 +1030,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1295,7 +1362,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1363,7 +1430,7 @@
       <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1419,12 +1486,8 @@
       <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
+      <c r="G3"/>
+      <c r="H3"/>
       <c r="O3" t="s">
         <v>24</v>
       </c>
@@ -1448,7 +1511,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:R2"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1517,43 +1580,43 @@
       <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:17">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1567,8 +1630,8 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1634,742 +1697,742 @@
         <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:16">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s">
         <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:16">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
         <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="O7" t="s">
         <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="O8" t="s">
         <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="O9" t="s">
         <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="O10" t="s">
         <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="O11" t="s">
         <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="O12" t="s">
         <v>24</v>
       </c>
       <c r="P12" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:16">
       <c r="B13" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O13" t="s">
         <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="2:16">
-      <c r="B14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" spans="2:16">
+      <c r="B14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="O15" t="s">
         <v>24</v>
       </c>
       <c r="P15" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:16">
       <c r="B16" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O16" t="s">
         <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" s="5" customFormat="1" spans="2:16">
-      <c r="B17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="1" spans="2:16">
-      <c r="B18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="2:16">
-      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" s="6" customFormat="1" spans="2:16">
+      <c r="B17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="F17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="2:16">
-      <c r="B20" s="4" t="s">
+      <c r="G17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="H17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" s="6" customFormat="1" spans="2:16">
+      <c r="B18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>25</v>
+      <c r="G18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="1" spans="2:16">
+      <c r="B19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" s="5" customFormat="1" spans="2:16">
+      <c r="B20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="O21" t="s">
         <v>24</v>
       </c>
       <c r="P21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" s="4" customFormat="1" spans="2:16">
-      <c r="B22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" spans="2:16">
-      <c r="B23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" s="5" customFormat="1" spans="2:16">
-      <c r="B24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" s="5" customFormat="1" spans="2:16">
-      <c r="B25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="1" spans="2:16">
+      <c r="B22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="E22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="2:16">
+      <c r="B23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="2:16">
+      <c r="B24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" s="6" customFormat="1" spans="2:16">
+      <c r="B25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" s="6" customFormat="1" spans="2:16">
+      <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" s="5" customFormat="1" spans="2:16">
-      <c r="B26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" s="5" customFormat="1" spans="2:16">
-      <c r="B27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" s="5" customFormat="1" spans="2:16">
-      <c r="B28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" s="5" customFormat="1" spans="2:16">
-      <c r="B29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>25</v>
+      <c r="C26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="2:16">
+      <c r="B27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" s="6" customFormat="1" spans="2:16">
+      <c r="B28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="2:16">
+      <c r="B29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F30"/>
       <c r="O30" t="s">
         <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2383,8 +2446,8 @@
   <sheetPr/>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="$A1:$XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2459,45 +2522,45 @@
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:18">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2511,7 +2574,7 @@
   <sheetPr/>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
@@ -2575,65 +2638,65 @@
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:18">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:17">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H3" s="1"/>
       <c r="J3" s="1"/>
@@ -2643,18 +2706,18 @@
         <v>24</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="1"/>
-    <row r="5" s="4" customFormat="1"/>
-    <row r="6" s="4" customFormat="1"/>
-    <row r="7" s="4" customFormat="1"/>
-    <row r="8" s="4" customFormat="1"/>
-    <row r="9" s="4" customFormat="1"/>
+    <row r="5" s="5" customFormat="1"/>
+    <row r="6" s="5" customFormat="1"/>
+    <row r="7" s="5" customFormat="1"/>
+    <row r="8" s="5" customFormat="1"/>
+    <row r="9" s="5" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2664,18 +2727,18 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="15" max="15" width="12.875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2718,39 +2781,46 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:15">
-      <c r="A2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>84</v>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:16">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>89</v>
+        <v>102</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2762,10 +2832,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2774,7 +2844,7 @@
     <col min="16" max="16" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2818,43 +2888,161 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" ht="14.25" spans="1:16">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="15" max="15" width="16.625" customWidth="1"/>
+    <col min="16" max="16" width="17.25" customWidth="1"/>
+    <col min="17" max="17" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>89</v>
+        <v>112</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
